--- a/Курсач/Розрахунки.xlsx
+++ b/Курсач/Розрахунки.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Біполяр" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="209">
   <si>
     <t>Iзаряду</t>
   </si>
@@ -773,6 +773,84 @@
   </si>
   <si>
     <t>6V</t>
+  </si>
+  <si>
+    <t>опір</t>
+  </si>
+  <si>
+    <t>Ur</t>
+  </si>
+  <si>
+    <t>Iрозряд</t>
+  </si>
+  <si>
+    <t>Iteor</t>
+  </si>
+  <si>
+    <t>Ubattery</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Iзаряд</t>
+  </si>
+  <si>
+    <t>практично</t>
+  </si>
+  <si>
+    <t>теоретично</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Р</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>18_00</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>желтый</t>
+  </si>
+  <si>
+    <t>синий маленький</t>
+  </si>
+  <si>
+    <t>синий большой</t>
+  </si>
+  <si>
+    <t>R_num</t>
+  </si>
+  <si>
+    <t>вх</t>
+  </si>
+  <si>
+    <t>вих</t>
+  </si>
+  <si>
+    <t>ку</t>
+  </si>
+  <si>
+    <t>для</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1444,6 +1522,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,19 +1615,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,6 +1645,207 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voltage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$P$31:$P$44</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.75277777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75694444444444453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76180555555555562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76388888888888884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76736111111111116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78472222222222221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79861111111111116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80555555555555547</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81944444444444453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$31:$N$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.9369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>4.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="41974400"/>
+        <c:axId val="45331200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="41974400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45331200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45331200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41974400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1993,6 +2302,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2310,11 +2654,11 @@
       <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
@@ -2592,11 +2936,11 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2675,11 +3019,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
@@ -2832,11 +3176,11 @@
       <c r="A48" s="10"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="74" t="s">
@@ -2895,7 +3239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -2963,11 +3307,11 @@
       <c r="I5" s="24">
         <v>5</v>
       </c>
-      <c r="O5" s="122" t="s">
+      <c r="O5" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K6" s="14" t="s">
@@ -2988,11 +3332,11 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126">
+      <c r="B7" s="134"/>
+      <c r="C7" s="135">
         <v>4.2</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -3018,7 +3362,7 @@
         <f>300*10^-6</f>
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="L7" s="123" t="s">
+      <c r="L7" s="132" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="46">
@@ -3037,9 +3381,9 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="126"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="24" t="s">
         <v>53</v>
       </c>
@@ -3051,7 +3395,7 @@
         <f>400*10^-6</f>
         <v>3.9999999999999996E-4</v>
       </c>
-      <c r="L8" s="124"/>
+      <c r="L8" s="133"/>
       <c r="M8" s="46">
         <v>2.548</v>
       </c>
@@ -3076,11 +3420,11 @@
       <c r="P9" s="51"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="126">
+      <c r="B10" s="134"/>
+      <c r="C10" s="135">
         <v>4</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -3106,7 +3450,7 @@
         <f>173*10^-6</f>
         <v>1.73E-4</v>
       </c>
-      <c r="L10" s="123" t="s">
+      <c r="L10" s="132" t="s">
         <v>6</v>
       </c>
       <c r="M10" s="46">
@@ -3125,9 +3469,9 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="24" t="s">
         <v>53</v>
       </c>
@@ -3139,7 +3483,7 @@
         <f>132*10^-6</f>
         <v>1.3199999999999998E-4</v>
       </c>
-      <c r="L11" s="124"/>
+      <c r="L11" s="133"/>
       <c r="M11" s="46">
         <v>1.6719999999999999</v>
       </c>
@@ -3190,11 +3534,11 @@
       <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="126">
+      <c r="B15" s="134"/>
+      <c r="C15" s="135">
         <v>4.2</v>
       </c>
       <c r="D15" s="24" t="s">
@@ -3214,7 +3558,7 @@
         <f>168*10^-6</f>
         <v>1.6799999999999999E-4</v>
       </c>
-      <c r="L15" s="125" t="s">
+      <c r="L15" s="134" t="s">
         <v>6</v>
       </c>
       <c r="M15" s="46"/>
@@ -3231,9 +3575,9 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135"/>
       <c r="D16" s="24" t="s">
         <v>53</v>
       </c>
@@ -3251,7 +3595,7 @@
         <f>128*10^-6</f>
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="L16" s="125"/>
+      <c r="L16" s="134"/>
       <c r="M16" s="46"/>
       <c r="N16" s="36">
         <f t="shared" ref="N16" si="1">K16*M16</f>
@@ -3290,11 +3634,11 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="126">
+      <c r="B18" s="134"/>
+      <c r="C18" s="135">
         <v>3.2</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -3314,7 +3658,7 @@
         <f>55*10^-6</f>
         <v>5.4999999999999995E-5</v>
       </c>
-      <c r="L18" s="125" t="s">
+      <c r="L18" s="134" t="s">
         <v>6</v>
       </c>
       <c r="M18" s="46"/>
@@ -3325,9 +3669,9 @@
       <c r="P18" s="51"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="126"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="24" t="s">
         <v>59</v>
       </c>
@@ -3345,7 +3689,7 @@
         <f>42*10^-6</f>
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="L19" s="125"/>
+      <c r="L19" s="134"/>
       <c r="M19" s="46"/>
       <c r="N19" s="36">
         <f>K19*M11</f>
@@ -3411,21 +3755,21 @@
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
-      <c r="E26" s="125" t="s">
+      <c r="E26" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125" t="s">
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125" t="s">
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="M26" s="125"/>
+      <c r="M26" s="134"/>
       <c r="P26" s="69" t="s">
         <v>70</v>
       </c>
@@ -3657,7 +4001,7 @@
     <row r="33" spans="1:15" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="81"/>
       <c r="B33" s="82"/>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="137" t="s">
         <v>175</v>
       </c>
       <c r="D33" s="106"/>
@@ -3671,7 +4015,7 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="81"/>
       <c r="B34" s="82"/>
-      <c r="C34" s="128"/>
+      <c r="C34" s="137"/>
       <c r="D34" s="76" t="s">
         <v>38</v>
       </c>
@@ -3691,7 +4035,7 @@
         <v>172</v>
       </c>
       <c r="B35" s="82"/>
-      <c r="C35" s="128"/>
+      <c r="C35" s="137"/>
       <c r="D35" s="75"/>
       <c r="G35" s="72"/>
       <c r="H35" s="72"/>
@@ -3704,7 +4048,7 @@
     </row>
     <row r="36" spans="1:15" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
-      <c r="C36" s="128"/>
+      <c r="C36" s="137"/>
       <c r="D36" s="31" t="s">
         <v>173</v>
       </c>
@@ -3722,7 +4066,7 @@
     </row>
     <row r="37" spans="1:15" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87"/>
-      <c r="C37" s="128"/>
+      <c r="C37" s="137"/>
       <c r="D37" s="105"/>
       <c r="E37" s="88"/>
       <c r="F37" s="81"/>
@@ -3914,19 +4258,19 @@
       <c r="M59" s="14"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="125" t="s">
+      <c r="A66" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="125"/>
-      <c r="J66" s="125"/>
-      <c r="K66" s="125"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="134"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="76" t="s">
@@ -4012,34 +4356,34 @@
       <c r="A70" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="127">
+      <c r="B70" s="136">
         <f>1/SUM(B69:K69)</f>
         <v>15.555444330668525</v>
       </c>
-      <c r="C70" s="127"/>
-      <c r="D70" s="127"/>
-      <c r="E70" s="127"/>
-      <c r="F70" s="127"/>
-      <c r="G70" s="127"/>
-      <c r="H70" s="127"/>
-      <c r="I70" s="127"/>
-      <c r="J70" s="127"/>
-      <c r="K70" s="127"/>
+      <c r="C70" s="136"/>
+      <c r="D70" s="136"/>
+      <c r="E70" s="136"/>
+      <c r="F70" s="136"/>
+      <c r="G70" s="136"/>
+      <c r="H70" s="136"/>
+      <c r="I70" s="136"/>
+      <c r="J70" s="136"/>
+      <c r="K70" s="136"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="125" t="s">
+      <c r="A74" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="125"/>
-      <c r="C74" s="125"/>
-      <c r="D74" s="125"/>
-      <c r="E74" s="125"/>
-      <c r="F74" s="125"/>
-      <c r="G74" s="125"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="125"/>
-      <c r="J74" s="125"/>
-      <c r="K74" s="125"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="134"/>
+      <c r="H74" s="134"/>
+      <c r="I74" s="134"/>
+      <c r="J74" s="134"/>
+      <c r="K74" s="134"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="113" t="s">
@@ -4120,19 +4464,19 @@
       <c r="A78" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="127">
+      <c r="B78" s="136">
         <f>1/SUM(B77:K77)</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="C78" s="127"/>
-      <c r="D78" s="127"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="127"/>
-      <c r="G78" s="127"/>
-      <c r="H78" s="127"/>
-      <c r="I78" s="127"/>
-      <c r="J78" s="127"/>
-      <c r="K78" s="127"/>
+      <c r="C78" s="136"/>
+      <c r="D78" s="136"/>
+      <c r="E78" s="136"/>
+      <c r="F78" s="136"/>
+      <c r="G78" s="136"/>
+      <c r="H78" s="136"/>
+      <c r="I78" s="136"/>
+      <c r="J78" s="136"/>
+      <c r="K78" s="136"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
@@ -4155,11 +4499,11 @@
       <c r="B90" s="48"/>
       <c r="C90" s="48"/>
       <c r="D90" s="48"/>
-      <c r="E90" s="125" t="s">
+      <c r="E90" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="F90" s="125"/>
-      <c r="G90" s="125"/>
+      <c r="F90" s="134"/>
+      <c r="G90" s="134"/>
     </row>
     <row r="91" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
@@ -4422,10 +4766,10 @@
         <f>B3/B2</f>
         <v>4.7746482927568596</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="130" t="str">
+      <c r="D5" s="139" t="str">
         <f>IF((B3/B2) &lt; 5.5,"ОК", "ОПАСНО")</f>
         <v>ОК</v>
       </c>
@@ -4437,8 +4781,8 @@
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="130"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4547,13 +4891,13 @@
       <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
@@ -4848,10 +5192,10 @@
       <c r="A30" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="132">
+      <c r="B30" s="141">
         <v>1.5</v>
       </c>
-      <c r="C30" s="133"/>
+      <c r="C30" s="142"/>
       <c r="D30" s="62" t="s">
         <v>5</v>
       </c>
@@ -4905,10 +5249,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y92"/>
+  <dimension ref="A1:Y115"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4921,7 +5265,7 @@
     <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -4943,21 +5287,21 @@
       <c r="H1" s="76">
         <v>12</v>
       </c>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
       <c r="U1" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
       <c r="E2" s="77"/>
       <c r="F2" s="77"/>
       <c r="G2" s="76" t="s">
@@ -4967,25 +5311,25 @@
         <v>4.2</v>
       </c>
       <c r="I2" s="77"/>
-      <c r="L2" s="121" t="s">
+      <c r="L2" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="110"/>
-      <c r="L3" s="137" t="s">
+      <c r="L3" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
       <c r="O3" s="110"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -5039,17 +5383,17 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="109"/>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
       <c r="O6" s="109"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -5158,17 +5502,17 @@
       <c r="P10" s="74"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
       <c r="D11" s="111"/>
-      <c r="L11" s="142" t="s">
+      <c r="L11" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="152"/>
       <c r="O11" s="111"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -5216,17 +5560,17 @@
       <c r="O13" s="74"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
       <c r="D14" s="112"/>
-      <c r="L14" s="144" t="s">
+      <c r="L14" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="157"/>
       <c r="O14" s="112"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -5364,7 +5708,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
-      <c r="K28" s="139" t="s">
+      <c r="K28" s="148" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="74">
@@ -5393,11 +5737,11 @@
       <c r="I29" s="76">
         <v>5</v>
       </c>
-      <c r="K29" s="139"/>
-      <c r="L29" s="121">
+      <c r="K29" s="148"/>
+      <c r="L29" s="130">
         <v>15</v>
       </c>
-      <c r="M29" s="121"/>
+      <c r="M29" s="130"/>
       <c r="N29" s="74" t="s">
         <v>132</v>
       </c>
@@ -5414,21 +5758,21 @@
       <c r="G30" s="77"/>
       <c r="H30" s="77"/>
       <c r="I30" s="77"/>
-      <c r="K30" s="139"/>
+      <c r="K30" s="148"/>
       <c r="L30" s="74" t="s">
         <v>142</v>
       </c>
       <c r="M30" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="121"/>
+      <c r="N30" s="130"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="125" t="s">
+      <c r="A31" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="125"/>
-      <c r="C31" s="146">
+      <c r="B31" s="134"/>
+      <c r="C31" s="153">
         <v>4.2</v>
       </c>
       <c r="D31" s="76" t="s">
@@ -5450,17 +5794,17 @@
         <f>I29*2/3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="K31" s="139"/>
-      <c r="L31" s="121" t="s">
+      <c r="K31" s="148"/>
+      <c r="L31" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="130"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="125"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="146"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="153"/>
       <c r="D32" s="76" t="s">
         <v>53</v>
       </c>
@@ -5472,9 +5816,9 @@
       <c r="G32" s="77"/>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="141"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="150"/>
       <c r="N32" s="74" t="s">
         <v>145</v>
       </c>
@@ -5489,19 +5833,19 @@
       <c r="G33" s="77"/>
       <c r="H33" s="77"/>
       <c r="I33" s="77"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
-      <c r="M33" s="141"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="74" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="125"/>
-      <c r="C34" s="147">
+      <c r="B34" s="134"/>
+      <c r="C34" s="154">
         <v>4</v>
       </c>
       <c r="D34" s="76" t="s">
@@ -5523,7 +5867,7 @@
         <f>I29/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="K34" s="139" t="s">
+      <c r="K34" s="148" t="s">
         <v>9</v>
       </c>
       <c r="L34" s="74" t="s">
@@ -5543,9 +5887,9 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="125"/>
-      <c r="B35" s="125"/>
-      <c r="C35" s="148"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="155"/>
       <c r="D35" s="76" t="s">
         <v>53</v>
       </c>
@@ -5557,11 +5901,11 @@
       <c r="G35" s="91"/>
       <c r="H35" s="77"/>
       <c r="I35" s="77"/>
-      <c r="K35" s="139"/>
-      <c r="L35" s="121">
+      <c r="K35" s="148"/>
+      <c r="L35" s="130">
         <v>0.25</v>
       </c>
-      <c r="M35" s="121"/>
+      <c r="M35" s="130"/>
       <c r="N35" s="74" t="s">
         <v>132</v>
       </c>
@@ -5576,29 +5920,29 @@
       <c r="G36" s="77"/>
       <c r="H36" s="77"/>
       <c r="I36" s="77"/>
-      <c r="K36" s="139"/>
+      <c r="K36" s="148"/>
       <c r="L36" s="74" t="s">
         <v>142</v>
       </c>
       <c r="M36" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="N36" s="121"/>
+      <c r="N36" s="130"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K37" s="139"/>
-      <c r="L37" s="121" t="s">
+      <c r="K37" s="148"/>
+      <c r="L37" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="M37" s="121"/>
-      <c r="N37" s="121"/>
+      <c r="M37" s="130"/>
+      <c r="N37" s="130"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K38" s="139"/>
-      <c r="L38" s="140" t="s">
+      <c r="K38" s="148"/>
+      <c r="L38" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="M38" s="141"/>
+      <c r="M38" s="150"/>
       <c r="N38" s="74" t="s">
         <v>145</v>
       </c>
@@ -5607,11 +5951,11 @@
       <c r="E39" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="139"/>
-      <c r="L39" s="140" t="s">
+      <c r="K39" s="148"/>
+      <c r="L39" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="M39" s="141"/>
+      <c r="M39" s="150"/>
       <c r="N39" s="74" t="s">
         <v>14</v>
       </c>
@@ -5657,22 +6001,22 @@
       </c>
       <c r="I52" s="120"/>
       <c r="J52" s="120"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
-      <c r="N52" s="134"/>
+      <c r="K52" s="143"/>
+      <c r="L52" s="143"/>
+      <c r="M52" s="143"/>
+      <c r="N52" s="143"/>
       <c r="O52" s="120"/>
       <c r="P52" s="120"/>
       <c r="Q52" s="120"/>
       <c r="R52" s="120"/>
     </row>
     <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="121" t="s">
+      <c r="A53" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
       <c r="E53" s="117"/>
       <c r="F53" s="117"/>
       <c r="G53" s="116" t="s">
@@ -5684,22 +6028,22 @@
       <c r="I53" s="117"/>
       <c r="J53" s="120"/>
       <c r="K53" s="120"/>
-      <c r="L53" s="121" t="s">
+      <c r="L53" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="M53" s="121"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="130"/>
       <c r="P53" s="120"/>
       <c r="Q53" s="120"/>
       <c r="R53" s="120"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="137" t="s">
+      <c r="A54" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="147"/>
       <c r="D54" s="110"/>
       <c r="E54" s="120"/>
       <c r="F54" s="120"/>
@@ -5708,11 +6052,11 @@
       <c r="I54" s="120"/>
       <c r="J54" s="120"/>
       <c r="K54" s="120"/>
-      <c r="L54" s="137" t="s">
+      <c r="L54" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="M54" s="138"/>
-      <c r="N54" s="138"/>
+      <c r="M54" s="147"/>
+      <c r="N54" s="147"/>
       <c r="O54" s="110"/>
       <c r="P54" s="120"/>
       <c r="Q54" s="120"/>
@@ -5789,11 +6133,11 @@
       <c r="R56" s="120"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="135" t="s">
+      <c r="A57" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
       <c r="D57" s="109"/>
       <c r="E57" s="120"/>
       <c r="F57" s="120"/>
@@ -5802,11 +6146,11 @@
       <c r="I57" s="120"/>
       <c r="J57" s="120"/>
       <c r="K57" s="120"/>
-      <c r="L57" s="135" t="s">
+      <c r="L57" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="M57" s="136"/>
-      <c r="N57" s="136"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="145"/>
       <c r="O57" s="109"/>
       <c r="P57" s="120"/>
       <c r="Q57" s="120"/>
@@ -5951,11 +6295,11 @@
       <c r="R61" s="120"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="142" t="s">
+      <c r="A62" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
+      <c r="B62" s="152"/>
+      <c r="C62" s="152"/>
       <c r="D62" s="111"/>
       <c r="E62" s="120"/>
       <c r="F62" s="120"/>
@@ -5964,11 +6308,11 @@
       <c r="I62" s="120"/>
       <c r="J62" s="120"/>
       <c r="K62" s="120"/>
-      <c r="L62" s="142" t="s">
+      <c r="L62" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="M62" s="143"/>
-      <c r="N62" s="143"/>
+      <c r="M62" s="152"/>
+      <c r="N62" s="152"/>
       <c r="O62" s="111"/>
       <c r="P62" s="120"/>
       <c r="Q62" s="120"/>
@@ -6039,11 +6383,11 @@
       <c r="R64" s="120"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="144" t="s">
+      <c r="A65" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="145"/>
-      <c r="C65" s="145"/>
+      <c r="B65" s="157"/>
+      <c r="C65" s="157"/>
       <c r="D65" s="112"/>
       <c r="E65" s="120"/>
       <c r="F65" s="120"/>
@@ -6052,11 +6396,11 @@
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
       <c r="K65" s="120"/>
-      <c r="L65" s="144" t="s">
+      <c r="L65" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="M65" s="145"/>
-      <c r="N65" s="145"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="157"/>
       <c r="O65" s="112"/>
       <c r="P65" s="120"/>
       <c r="Q65" s="120"/>
@@ -6383,7 +6727,7 @@
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
       <c r="J79" s="120"/>
-      <c r="K79" s="139" t="s">
+      <c r="K79" s="148" t="s">
         <v>8</v>
       </c>
       <c r="L79" s="114">
@@ -6417,11 +6761,11 @@
         <v>5</v>
       </c>
       <c r="J80" s="120"/>
-      <c r="K80" s="139"/>
-      <c r="L80" s="121">
+      <c r="K80" s="148"/>
+      <c r="L80" s="130">
         <v>15</v>
       </c>
-      <c r="M80" s="121"/>
+      <c r="M80" s="130"/>
       <c r="N80" s="114" t="s">
         <v>132</v>
       </c>
@@ -6443,25 +6787,25 @@
       <c r="H81" s="117"/>
       <c r="I81" s="117"/>
       <c r="J81" s="120"/>
-      <c r="K81" s="139"/>
+      <c r="K81" s="148"/>
       <c r="L81" s="114" t="s">
         <v>142</v>
       </c>
       <c r="M81" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="N81" s="121"/>
+      <c r="N81" s="130"/>
       <c r="O81" s="120"/>
       <c r="P81" s="120"/>
       <c r="Q81" s="120"/>
       <c r="R81" s="120"/>
     </row>
     <row r="82" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="125" t="s">
+      <c r="A82" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="125"/>
-      <c r="C82" s="146">
+      <c r="B82" s="134"/>
+      <c r="C82" s="153">
         <v>4.2</v>
       </c>
       <c r="D82" s="116" t="s">
@@ -6484,21 +6828,21 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="J82" s="120"/>
-      <c r="K82" s="139"/>
-      <c r="L82" s="121" t="s">
+      <c r="K82" s="148"/>
+      <c r="L82" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="M82" s="121"/>
-      <c r="N82" s="121"/>
+      <c r="M82" s="130"/>
+      <c r="N82" s="130"/>
       <c r="O82" s="120"/>
       <c r="P82" s="120"/>
       <c r="Q82" s="120"/>
       <c r="R82" s="120"/>
     </row>
     <row r="83" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="125"/>
-      <c r="B83" s="125"/>
-      <c r="C83" s="146"/>
+      <c r="A83" s="134"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="153"/>
       <c r="D83" s="116" t="s">
         <v>53</v>
       </c>
@@ -6511,9 +6855,9 @@
       <c r="H83" s="117"/>
       <c r="I83" s="117"/>
       <c r="J83" s="120"/>
-      <c r="K83" s="139"/>
-      <c r="L83" s="140"/>
-      <c r="M83" s="141"/>
+      <c r="K83" s="148"/>
+      <c r="L83" s="149"/>
+      <c r="M83" s="150"/>
       <c r="N83" s="114" t="s">
         <v>145</v>
       </c>
@@ -6533,9 +6877,9 @@
       <c r="H84" s="117"/>
       <c r="I84" s="117"/>
       <c r="J84" s="120"/>
-      <c r="K84" s="139"/>
-      <c r="L84" s="140"/>
-      <c r="M84" s="141"/>
+      <c r="K84" s="148"/>
+      <c r="L84" s="149"/>
+      <c r="M84" s="150"/>
       <c r="N84" s="114" t="s">
         <v>14</v>
       </c>
@@ -6545,11 +6889,11 @@
       <c r="R84" s="120"/>
     </row>
     <row r="85" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="125" t="s">
+      <c r="A85" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="125"/>
-      <c r="C85" s="147">
+      <c r="B85" s="134"/>
+      <c r="C85" s="154">
         <v>4</v>
       </c>
       <c r="D85" s="116" t="s">
@@ -6572,7 +6916,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="J85" s="120"/>
-      <c r="K85" s="139" t="s">
+      <c r="K85" s="148" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="114" t="s">
@@ -6594,9 +6938,9 @@
       <c r="R85" s="120"/>
     </row>
     <row r="86" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="125"/>
-      <c r="B86" s="125"/>
-      <c r="C86" s="148"/>
+      <c r="A86" s="134"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="155"/>
       <c r="D86" s="116" t="s">
         <v>53</v>
       </c>
@@ -6609,11 +6953,11 @@
       <c r="H86" s="117"/>
       <c r="I86" s="117"/>
       <c r="J86" s="120"/>
-      <c r="K86" s="139"/>
-      <c r="L86" s="121">
+      <c r="K86" s="148"/>
+      <c r="L86" s="130">
         <v>0.25</v>
       </c>
-      <c r="M86" s="121"/>
+      <c r="M86" s="130"/>
       <c r="N86" s="114" t="s">
         <v>132</v>
       </c>
@@ -6633,14 +6977,14 @@
       <c r="H87" s="117"/>
       <c r="I87" s="117"/>
       <c r="J87" s="120"/>
-      <c r="K87" s="139"/>
+      <c r="K87" s="148"/>
       <c r="L87" s="114" t="s">
         <v>142</v>
       </c>
       <c r="M87" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="N87" s="121"/>
+      <c r="N87" s="130"/>
       <c r="O87" s="120"/>
       <c r="P87" s="120"/>
       <c r="Q87" s="120"/>
@@ -6657,12 +7001,12 @@
       <c r="H88" s="120"/>
       <c r="I88" s="120"/>
       <c r="J88" s="120"/>
-      <c r="K88" s="139"/>
-      <c r="L88" s="121" t="s">
+      <c r="K88" s="148"/>
+      <c r="L88" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="M88" s="121"/>
-      <c r="N88" s="121"/>
+      <c r="M88" s="130"/>
+      <c r="N88" s="130"/>
       <c r="O88" s="120"/>
       <c r="P88" s="120"/>
       <c r="Q88" s="120"/>
@@ -6679,11 +7023,11 @@
       <c r="H89" s="120"/>
       <c r="I89" s="120"/>
       <c r="J89" s="120"/>
-      <c r="K89" s="139"/>
-      <c r="L89" s="140" t="s">
+      <c r="K89" s="148"/>
+      <c r="L89" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="M89" s="141"/>
+      <c r="M89" s="150"/>
       <c r="N89" s="114" t="s">
         <v>145</v>
       </c>
@@ -6705,11 +7049,11 @@
       <c r="H90" s="120"/>
       <c r="I90" s="120"/>
       <c r="J90" s="120"/>
-      <c r="K90" s="139"/>
-      <c r="L90" s="140" t="s">
+      <c r="K90" s="148"/>
+      <c r="L90" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="M90" s="141"/>
+      <c r="M90" s="150"/>
       <c r="N90" s="114" t="s">
         <v>14</v>
       </c>
@@ -6725,9 +7069,15 @@
       <c r="D91" s="120"/>
       <c r="E91" s="116"/>
       <c r="F91" s="120"/>
-      <c r="G91" s="120"/>
-      <c r="H91" s="120"/>
-      <c r="I91" s="120"/>
+      <c r="G91" s="120" t="s">
+        <v>185</v>
+      </c>
+      <c r="H91" s="120">
+        <v>0.22</v>
+      </c>
+      <c r="I91" s="120" t="s">
+        <v>6</v>
+      </c>
       <c r="J91" s="120"/>
       <c r="K91" s="120"/>
       <c r="L91" s="120"/>
@@ -6747,21 +7097,356 @@
         <v>47</v>
       </c>
       <c r="F92" s="120"/>
-      <c r="G92" s="120"/>
-      <c r="H92" s="120"/>
-      <c r="I92" s="120"/>
+      <c r="G92" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="H92" s="120">
+        <f>O93</f>
+        <v>15.555</v>
+      </c>
+      <c r="I92" s="120" t="s">
+        <v>78</v>
+      </c>
       <c r="J92" s="120"/>
-      <c r="K92" s="120"/>
-      <c r="L92" s="120"/>
-      <c r="M92" s="120"/>
+      <c r="K92" s="120">
+        <v>16</v>
+      </c>
+      <c r="L92" s="120">
+        <v>21</v>
+      </c>
+      <c r="M92" s="120">
+        <v>22</v>
+      </c>
       <c r="N92" s="120"/>
-      <c r="O92" s="120"/>
-      <c r="P92" s="120"/>
+      <c r="O92" s="120">
+        <f>AVERAGE(K92:M92)</f>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="P92" s="120" t="s">
+        <v>190</v>
+      </c>
       <c r="Q92" s="120"/>
       <c r="R92" s="120"/>
     </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G93" s="122" t="s">
+        <v>185</v>
+      </c>
+      <c r="H93" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K93" s="2">
+        <v>46.8</v>
+      </c>
+      <c r="L93" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="M93" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O93" s="2">
+        <v>15.555</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G95" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H95" s="2">
+        <f>H93/H92</f>
+        <v>0.22436515589842496</v>
+      </c>
+    </row>
+    <row r="98" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E98" s="121"/>
+      <c r="F98" s="130" t="s">
+        <v>187</v>
+      </c>
+      <c r="G98" s="130"/>
+      <c r="H98" s="121"/>
+      <c r="I98" s="121"/>
+      <c r="J98" s="121"/>
+      <c r="K98" s="121"/>
+      <c r="L98" s="121"/>
+    </row>
+    <row r="99" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E99" s="121" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="G99" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="H99" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="I99" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="J99" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="K99" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="L99" s="121" t="s">
+        <v>196</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E100" s="121">
+        <v>1</v>
+      </c>
+      <c r="F100" s="121">
+        <v>4</v>
+      </c>
+      <c r="G100" s="121">
+        <v>3.95</v>
+      </c>
+      <c r="H100" s="121">
+        <v>7.51</v>
+      </c>
+      <c r="I100" s="121">
+        <v>15.555</v>
+      </c>
+      <c r="J100" s="121">
+        <v>3.56</v>
+      </c>
+      <c r="K100" s="121">
+        <f>J100/I100</f>
+        <v>0.22886531661845066</v>
+      </c>
+      <c r="L100" s="121">
+        <f>K100*J100</f>
+        <v>0.81476052716168434</v>
+      </c>
+      <c r="N100" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E101" s="121">
+        <v>2</v>
+      </c>
+      <c r="F101" s="121">
+        <v>3.94</v>
+      </c>
+      <c r="G101" s="121">
+        <v>3.91</v>
+      </c>
+      <c r="H101" s="121">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="I101" s="123">
+        <v>15.555</v>
+      </c>
+      <c r="J101" s="121">
+        <v>3.35</v>
+      </c>
+      <c r="K101" s="123">
+        <f>J101/I101</f>
+        <v>0.21536483445837351</v>
+      </c>
+      <c r="L101" s="123">
+        <f t="shared" ref="L101:L102" si="0">K101*J101</f>
+        <v>0.7214721954355513</v>
+      </c>
+      <c r="N101" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E102" s="121">
+        <v>3</v>
+      </c>
+      <c r="F102" s="121"/>
+      <c r="G102" s="121">
+        <v>3.88</v>
+      </c>
+      <c r="H102" s="121">
+        <v>9.43</v>
+      </c>
+      <c r="I102" s="121"/>
+      <c r="J102" s="121">
+        <v>3.28</v>
+      </c>
+      <c r="K102" s="121"/>
+      <c r="L102" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E103" s="123">
+        <v>4</v>
+      </c>
+      <c r="F103" s="123"/>
+      <c r="G103" s="123">
+        <v>3.86</v>
+      </c>
+      <c r="H103" s="123">
+        <v>9.51</v>
+      </c>
+      <c r="I103" s="123"/>
+      <c r="J103" s="123"/>
+      <c r="K103" s="123"/>
+      <c r="L103" s="123"/>
+      <c r="N103" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E104" s="123"/>
+      <c r="F104" s="123"/>
+      <c r="G104" s="123">
+        <v>3.84</v>
+      </c>
+      <c r="H104" s="123">
+        <v>10.11</v>
+      </c>
+      <c r="I104" s="123">
+        <v>15.9</v>
+      </c>
+      <c r="J104" s="123">
+        <v>3.21</v>
+      </c>
+      <c r="K104" s="123"/>
+      <c r="L104" s="123"/>
+    </row>
+    <row r="105" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E105" s="123"/>
+      <c r="F105" s="123"/>
+      <c r="G105" s="123"/>
+      <c r="H105" s="123">
+        <v>16.39</v>
+      </c>
+      <c r="I105" s="123"/>
+      <c r="J105" s="123"/>
+      <c r="K105" s="123"/>
+      <c r="L105" s="123"/>
+    </row>
+    <row r="106" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E106" s="123"/>
+      <c r="F106" s="123"/>
+      <c r="G106" s="123"/>
+      <c r="H106" s="123"/>
+      <c r="I106" s="123"/>
+      <c r="J106" s="123"/>
+      <c r="K106" s="123"/>
+      <c r="L106" s="123"/>
+    </row>
+    <row r="107" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E107" s="123"/>
+      <c r="F107" s="123"/>
+      <c r="G107" s="123"/>
+      <c r="H107" s="123"/>
+      <c r="I107" s="123"/>
+      <c r="J107" s="123"/>
+      <c r="K107" s="123"/>
+      <c r="L107" s="123"/>
+    </row>
+    <row r="108" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E108" s="123"/>
+      <c r="F108" s="123"/>
+      <c r="G108" s="123"/>
+      <c r="H108" s="123"/>
+      <c r="I108" s="123"/>
+      <c r="J108" s="123"/>
+      <c r="K108" s="123"/>
+      <c r="L108" s="123"/>
+    </row>
+    <row r="109" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E109" s="123"/>
+      <c r="F109" s="123"/>
+      <c r="G109" s="123"/>
+      <c r="H109" s="123"/>
+      <c r="I109" s="123"/>
+      <c r="J109" s="123"/>
+      <c r="K109" s="123"/>
+      <c r="L109" s="123"/>
+    </row>
+    <row r="113" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E113" s="124"/>
+      <c r="F113" s="124"/>
+      <c r="G113" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="H113" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="I113" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="J113" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="K113" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="L113" s="124" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E114" s="124">
+        <v>1</v>
+      </c>
+      <c r="F114" s="124">
+        <v>3.89</v>
+      </c>
+      <c r="G114" s="124">
+        <v>3.89</v>
+      </c>
+      <c r="H114" s="124">
+        <v>8.15</v>
+      </c>
+      <c r="I114" s="124">
+        <v>15.555</v>
+      </c>
+      <c r="J114" s="124">
+        <v>3.4</v>
+      </c>
+      <c r="K114" s="124">
+        <v>0.22</v>
+      </c>
+      <c r="L114" s="124">
+        <f>K114*J114</f>
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="115" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E115" s="124">
+        <v>2</v>
+      </c>
+      <c r="F115" s="124"/>
+      <c r="G115" s="124">
+        <v>4.2</v>
+      </c>
+      <c r="H115" s="124"/>
+      <c r="I115" s="124"/>
+      <c r="J115" s="124"/>
+      <c r="K115" s="124"/>
+      <c r="L115" s="124"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
     <mergeCell ref="A85:B86"/>
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="K85:K90"/>
@@ -6770,6 +7455,8 @@
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="L90:M90"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="L65:N65"/>
     <mergeCell ref="K79:K84"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N81:N82"/>
@@ -6778,26 +7465,35 @@
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="L84:M84"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="L54:N54"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="L57:N57"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="K52:N52"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="L53:O53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L14:N14"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="A34:B35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L6:N6"/>
     <mergeCell ref="N36:N37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="K28:K33"/>
@@ -6806,16 +7502,6 @@
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6823,36 +7509,897 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>161</v>
       </c>
     </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N9" s="129"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="129"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="126" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="126">
+        <v>12</v>
+      </c>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="143"/>
+      <c r="Y11" s="143"/>
+      <c r="Z11" s="143"/>
+      <c r="AA11" s="143"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="125" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="I12" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="N12" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="126">
+        <v>4.2</v>
+      </c>
+      <c r="V12" s="127"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="130"/>
+      <c r="AC12" s="129"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C13" s="125">
+        <v>1</v>
+      </c>
+      <c r="D13" s="125">
+        <v>3.9</v>
+      </c>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="125">
+        <v>15.555</v>
+      </c>
+      <c r="H13" s="125">
+        <v>0</v>
+      </c>
+      <c r="I13" s="125">
+        <v>0.22</v>
+      </c>
+      <c r="J13" s="125">
+        <f>I13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="146" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="146" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="129"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C14" s="125">
+        <v>2</v>
+      </c>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125">
+        <v>4.2</v>
+      </c>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="N14" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P14" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="125">
+        <v>10</v>
+      </c>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>9.92</v>
+      </c>
+      <c r="AA14" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="125">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="129"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N15" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="125">
+        <v>3.9</v>
+      </c>
+      <c r="P15" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15" s="125">
+        <v>3.91</v>
+      </c>
+      <c r="AA15" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="125">
+        <v>3.9209999999999998</v>
+      </c>
+      <c r="AC15" s="129"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N16" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z16" s="145"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="129"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N17" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z17" s="73">
+        <v>0.187</v>
+      </c>
+      <c r="AA17" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="129"/>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N18" s="125" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="129"/>
+      <c r="V18" s="129"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="129"/>
+      <c r="Y18" s="125" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z18" s="73">
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="AA18" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB18" s="125"/>
+      <c r="AC18" s="129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N19" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="125">
+        <v>0.02</v>
+      </c>
+      <c r="P19" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125">
+        <v>3.35</v>
+      </c>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z19" s="73">
+        <f>32*10^-3</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AA19" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="125"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N20" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="125">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="P20" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125">
+        <v>3.52</v>
+      </c>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="73">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AA20" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="125"/>
+      <c r="AC20" s="125"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N21" s="151" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="129"/>
+      <c r="W21" s="129"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="151" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z21" s="152"/>
+      <c r="AA21" s="152"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="129"/>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N22" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22" s="125">
+        <f>O14</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P22" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="U22" s="129"/>
+      <c r="V22" s="129"/>
+      <c r="W22" s="129"/>
+      <c r="X22" s="129"/>
+      <c r="Y22" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z22" s="125">
+        <v>9.92</v>
+      </c>
+      <c r="AA22" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="129"/>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N23" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" s="125">
+        <f>O25</f>
+        <v>7.84</v>
+      </c>
+      <c r="P23" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z23" s="125">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="129"/>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N24" s="156" t="s">
+        <v>149</v>
+      </c>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="156" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z24" s="157"/>
+      <c r="AA24" s="157"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="129"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N25" s="125" t="s">
+        <v>131</v>
+      </c>
+      <c r="O25" s="125">
+        <v>7.84</v>
+      </c>
+      <c r="P25" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="125">
+        <v>8</v>
+      </c>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="129"/>
+      <c r="Y25" s="125" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z25" s="125">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AA25" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="129"/>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="101"/>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N27" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="125">
+        <v>2.1</v>
+      </c>
+      <c r="P27" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
+      <c r="W27" s="129"/>
+      <c r="X27" s="129"/>
+      <c r="Y27" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z27" s="125">
+        <v>1.629</v>
+      </c>
+      <c r="AA27" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="125"/>
+      <c r="AC27" s="129"/>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="N28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" s="4">
+        <v>5.84</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="101"/>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <f>1+G30/G31</f>
+        <v>2.9332023575638506</v>
+      </c>
+      <c r="G30">
+        <v>9840</v>
+      </c>
+      <c r="H30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="N30" s="125" t="s">
+        <v>200</v>
+      </c>
+      <c r="O30" s="125"/>
+      <c r="P30" s="125" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <f>1+G30/G32</f>
+        <v>2.2073619631901842</v>
+      </c>
+      <c r="G31">
+        <v>5090</v>
+      </c>
+      <c r="H31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="N31" s="73">
+        <v>3.9369999999999998</v>
+      </c>
+      <c r="O31" s="125">
+        <v>18.07</v>
+      </c>
+      <c r="P31" s="158">
+        <v>0.75277777777777777</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <f>1+G32/G31</f>
+        <v>2.601178781925344</v>
+      </c>
+      <c r="G32">
+        <v>8150</v>
+      </c>
+      <c r="H32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="N32" s="73">
+        <v>3.94</v>
+      </c>
+      <c r="O32" s="125">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P32" s="158">
+        <v>0.75694444444444453</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N33" s="73">
+        <v>3.96</v>
+      </c>
+      <c r="O33" s="125">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="P33" s="158">
+        <v>0.76180555555555562</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N34" s="73">
+        <v>3.96</v>
+      </c>
+      <c r="O34" s="125">
+        <v>18.2</v>
+      </c>
+      <c r="P34" s="158">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="N35" s="73">
+        <v>3.98</v>
+      </c>
+      <c r="O35" s="125">
+        <v>18.25</v>
+      </c>
+      <c r="P35" s="158">
+        <v>0.76736111111111116</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36">
+        <v>3.97</v>
+      </c>
+      <c r="N36" s="73">
+        <v>3.98</v>
+      </c>
+      <c r="O36" s="125">
+        <v>18.3</v>
+      </c>
+      <c r="P36" s="158">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37">
+        <v>8.77</v>
+      </c>
+      <c r="N37" s="73">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="O37" s="125">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="P37" s="158">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38">
+        <f>D37/D36</f>
+        <v>2.2090680100755664</v>
+      </c>
+      <c r="N38" s="73">
+        <v>3.99</v>
+      </c>
+      <c r="O38" s="125">
+        <v>18.45</v>
+      </c>
+      <c r="P38" s="158">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N39" s="73">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="O39" s="125">
+        <v>18.5</v>
+      </c>
+      <c r="P39" s="158">
+        <v>0.78472222222222221</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N40" s="125">
+        <v>4.01</v>
+      </c>
+      <c r="O40" s="125">
+        <v>19</v>
+      </c>
+      <c r="P40" s="158">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N41" s="125">
+        <v>4.03</v>
+      </c>
+      <c r="O41" s="125">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="P41" s="158">
+        <v>0.79861111111111116</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N42" s="125">
+        <v>4.05</v>
+      </c>
+      <c r="O42" s="125">
+        <v>19.2</v>
+      </c>
+      <c r="P42" s="158">
+        <v>0.80555555555555547</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>194</v>
+      </c>
+      <c r="M43">
+        <v>3.98</v>
+      </c>
+      <c r="N43" s="125"/>
+      <c r="O43" s="125">
+        <v>19.3</v>
+      </c>
+      <c r="P43" s="158">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N44" s="125"/>
+      <c r="O44" s="125">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="P44" s="158">
+        <v>0.81944444444444453</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Y16:AA16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>